--- a/氣象性能評估工具V2/data/obs/backup/2016-06-01_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-01_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-01 00:00:00</t>
+    <t>2016-06-01-00</t>
   </si>
   <si>
     <t>22.8</t>
@@ -142,7 +142,7 @@
     <t>29.1</t>
   </si>
   <si>
-    <t>2016-06-01 01:00:00</t>
+    <t>2016-06-01-01</t>
   </si>
   <si>
     <t>22.6</t>
@@ -190,7 +190,7 @@
     <t>26.3</t>
   </si>
   <si>
-    <t>2016-06-01 02:00:00</t>
+    <t>2016-06-01-02</t>
   </si>
   <si>
     <t>22.4</t>
@@ -226,7 +226,7 @@
     <t>26.0</t>
   </si>
   <si>
-    <t>2016-06-01 03:00:00</t>
+    <t>2016-06-01-03</t>
   </si>
   <si>
     <t>21.9</t>
@@ -253,7 +253,7 @@
     <t>25.8</t>
   </si>
   <si>
-    <t>2016-06-01 04:00:00</t>
+    <t>2016-06-01-04</t>
   </si>
   <si>
     <t>22.1</t>
@@ -280,7 +280,7 @@
     <t>26.7</t>
   </si>
   <si>
-    <t>2016-06-01 05:00:00</t>
+    <t>2016-06-01-05</t>
   </si>
   <si>
     <t>23.7</t>
@@ -304,7 +304,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-01 06:00:00</t>
+    <t>2016-06-01-06</t>
   </si>
   <si>
     <t>22.9</t>
@@ -328,7 +328,7 @@
     <t>29.5</t>
   </si>
   <si>
-    <t>2016-06-01 07:00:00</t>
+    <t>2016-06-01-07</t>
   </si>
   <si>
     <t>22.7</t>
@@ -376,7 +376,7 @@
     <t>30.9</t>
   </si>
   <si>
-    <t>2016-06-01 08:00:00</t>
+    <t>2016-06-01-08</t>
   </si>
   <si>
     <t>23.0</t>
@@ -415,7 +415,7 @@
     <t>31.6</t>
   </si>
   <si>
-    <t>2016-06-01 09:00:00</t>
+    <t>2016-06-01-09</t>
   </si>
   <si>
     <t>23.8</t>
@@ -463,7 +463,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-01 10:00:00</t>
+    <t>2016-06-01-10</t>
   </si>
   <si>
     <t>32.9</t>
@@ -487,7 +487,7 @@
     <t>37.7</t>
   </si>
   <si>
-    <t>2016-06-01 11:00:00</t>
+    <t>2016-06-01-11</t>
   </si>
   <si>
     <t>35.1</t>
@@ -520,7 +520,7 @@
     <t>38.0</t>
   </si>
   <si>
-    <t>2016-06-01 12:00:00</t>
+    <t>2016-06-01-12</t>
   </si>
   <si>
     <t>35.6</t>
@@ -547,7 +547,7 @@
     <t>36.6</t>
   </si>
   <si>
-    <t>2016-06-01 13:00:00</t>
+    <t>2016-06-01-13</t>
   </si>
   <si>
     <t>38.1</t>
@@ -571,7 +571,7 @@
     <t>9.3</t>
   </si>
   <si>
-    <t>2016-06-01 14:00:00</t>
+    <t>2016-06-01-14</t>
   </si>
   <si>
     <t>35.5</t>
@@ -589,7 +589,7 @@
     <t>19.3</t>
   </si>
   <si>
-    <t>2016-06-01 15:00:00</t>
+    <t>2016-06-01-15</t>
   </si>
   <si>
     <t>33.5</t>
@@ -619,7 +619,7 @@
     <t>8.6</t>
   </si>
   <si>
-    <t>2016-06-01 16:00:00</t>
+    <t>2016-06-01-16</t>
   </si>
   <si>
     <t>37.6</t>
@@ -631,7 +631,7 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>2016-06-01 17:00:00</t>
+    <t>2016-06-01-17</t>
   </si>
   <si>
     <t>25.2</t>
@@ -643,7 +643,7 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>2016-06-01 18:00:00</t>
+    <t>2016-06-01-18</t>
   </si>
   <si>
     <t>30.4</t>
@@ -652,7 +652,7 @@
     <t>14.5</t>
   </si>
   <si>
-    <t>2016-06-01 19:00:00</t>
+    <t>2016-06-01-19</t>
   </si>
   <si>
     <t>24.1</t>
@@ -664,10 +664,10 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>2016-06-01 20:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-01 21:00:00</t>
+    <t>2016-06-01-20</t>
+  </si>
+  <si>
+    <t>2016-06-01-21</t>
   </si>
   <si>
     <t>23.4</t>
@@ -679,13 +679,13 @@
     <t>13.2</t>
   </si>
   <si>
-    <t>2016-06-01 22:00:00</t>
+    <t>2016-06-01-22</t>
   </si>
   <si>
     <t>24.7</t>
   </si>
   <si>
-    <t>2016-06-01 23:00:00</t>
+    <t>2016-06-01-23</t>
   </si>
   <si>
     <t>23.9</t>
